--- a/Repository.ac.id.xlsx
+++ b/Repository.ac.id.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Google Drive\Repository ac.id\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Repository.ac.id\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{036EE3C5-652C-4DA6-9D6A-4ADC3B4C26BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42162044-93C5-41F4-A88A-4E8801AAC321}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="117">
   <si>
     <t>No</t>
   </si>
@@ -37,6 +37,345 @@
   </si>
   <si>
     <t>Keterangan</t>
+  </si>
+  <si>
+    <t>http://repository.dinamika.ac.id/</t>
+  </si>
+  <si>
+    <t>http://repo.iain-tulungagung.ac.id/</t>
+  </si>
+  <si>
+    <t>http://repository.iainpurwokerto.ac.id/</t>
+  </si>
+  <si>
+    <t>https://repository.ipb.ac.id/</t>
+  </si>
+  <si>
+    <t>http://repository.its.ac.id/</t>
+  </si>
+  <si>
+    <t>http://repository.ui.ac.id/</t>
+  </si>
+  <si>
+    <t>http://repository.unair.ac.id/</t>
+  </si>
+  <si>
+    <t>https://repository.ung.ac.id/</t>
+  </si>
+  <si>
+    <t>https://repository.unsri.ac.id/</t>
+  </si>
+  <si>
+    <t>http://repository.ut.ac.id/</t>
+  </si>
+  <si>
+    <t>https://repository.stiesia.ac.id/</t>
+  </si>
+  <si>
+    <t>http://repository.trisakti.ac.id/</t>
+  </si>
+  <si>
+    <t>http://eprints.uad.ac.id/</t>
+  </si>
+  <si>
+    <t>http://repository.ubharajaya.ac.id/</t>
+  </si>
+  <si>
+    <t>https://repository.ugm.ac.id/</t>
+  </si>
+  <si>
+    <t>http://eprints.undip.ac.id/</t>
+  </si>
+  <si>
+    <t>http://repository.lppm.unila.ac.id/</t>
+  </si>
+  <si>
+    <t>http://repository.unp.ac.id/</t>
+  </si>
+  <si>
+    <t>http://repository.utu.ac.id/</t>
+  </si>
+  <si>
+    <t>https://repository.bakrie.ac.id/</t>
+  </si>
+  <si>
+    <t>http://repository.borneo.ac.id/</t>
+  </si>
+  <si>
+    <t>http://eprints.poltekkesjogja.ac.id/</t>
+  </si>
+  <si>
+    <t>http://repository.uinjkt.ac.id/</t>
+  </si>
+  <si>
+    <t>http://repository.uma.ac.id/</t>
+  </si>
+  <si>
+    <t>http://eprints.unipdu.ac.id/</t>
+  </si>
+  <si>
+    <t>https://repository.unja.ac.id/</t>
+  </si>
+  <si>
+    <t>http://repository.untag-sby.ac.id/</t>
+  </si>
+  <si>
+    <t>http://eprints.walisongo.ac.id/</t>
+  </si>
+  <si>
+    <t>http://repository.wima.ac.id/</t>
+  </si>
+  <si>
+    <t>http://repository.polnep.ac.id/</t>
+  </si>
+  <si>
+    <t>https://repository.poltekkespalembang.ac.id/</t>
+  </si>
+  <si>
+    <t>http://repository.setiabudi.ac.id/</t>
+  </si>
+  <si>
+    <t>https://repository.stiedewantara.ac.id/</t>
+  </si>
+  <si>
+    <t>http://eprints.ubhara.ac.id/</t>
+  </si>
+  <si>
+    <t>http://repository.um-palembang.ac.id/</t>
+  </si>
+  <si>
+    <t>http://repository.unitri.ac.id/</t>
+  </si>
+  <si>
+    <t>http://repository.unusa.ac.id/</t>
+  </si>
+  <si>
+    <t>http://repository.iainmadura.ac.id/</t>
+  </si>
+  <si>
+    <t>http://repository.ottimmo.ac.id/</t>
+  </si>
+  <si>
+    <t>http://repository.pimedu.ac.id/</t>
+  </si>
+  <si>
+    <t>http://eprints.polsri.ac.id/</t>
+  </si>
+  <si>
+    <t>http://repository.poltekkes-denpasar.ac.id/</t>
+  </si>
+  <si>
+    <t>http://eprints.ummi.ac.id/</t>
+  </si>
+  <si>
+    <t>http://eprints.umsida.ac.id/</t>
+  </si>
+  <si>
+    <t>http://repository.univ-tridinanti.ac.id/</t>
+  </si>
+  <si>
+    <t>http://repository.pip-semarang.ac.id/</t>
+  </si>
+  <si>
+    <t>http://repository.podomorouniversity.ac.id/</t>
+  </si>
+  <si>
+    <t>http://portaluniversitasquality.ac.id:55555/</t>
+  </si>
+  <si>
+    <t>http://repository.radenfatah.ac.id/</t>
+  </si>
+  <si>
+    <t>http://repository.stiewidyagamalumajang.ac.id/</t>
+  </si>
+  <si>
+    <t>https://repository.ummat.ac.id/</t>
+  </si>
+  <si>
+    <t>http://repo.unand.ac.id/</t>
+  </si>
+  <si>
+    <t>http://repository.unim.ac.id/</t>
+  </si>
+  <si>
+    <t>http://repository.unpas.ac.id/</t>
+  </si>
+  <si>
+    <t>http://repository.upstegal.ac.id/</t>
+  </si>
+  <si>
+    <t>http://repository.iainpalopo.ac.id/</t>
+  </si>
+  <si>
+    <t>http://eprints.perbanas.ac.id/</t>
+  </si>
+  <si>
+    <t>http://repository.poltekkes-tjk.ac.id/</t>
+  </si>
+  <si>
+    <t>http://repository.stikeshangtuahsby-library.ac.id/</t>
+  </si>
+  <si>
+    <t>http://repository.uinib.ac.id/</t>
+  </si>
+  <si>
+    <t>http://repository.um-surabaya.ac.id/</t>
+  </si>
+  <si>
+    <t>http://repository.um.ac.id/</t>
+  </si>
+  <si>
+    <t>https://repository.unikama.ac.id/</t>
+  </si>
+  <si>
+    <t>https://repo.unsrat.ac.id/</t>
+  </si>
+  <si>
+    <t>http://repository.upiyptk.ac.id/</t>
+  </si>
+  <si>
+    <t>https://eprints.akakom.ac.id/</t>
+  </si>
+  <si>
+    <t>http://repository.ppns.ac.id/</t>
+  </si>
+  <si>
+    <t>https://repository.telkomuniversity.ac.id/</t>
+  </si>
+  <si>
+    <t>http://repository.uhamka.ac.id/</t>
+  </si>
+  <si>
+    <t>http://repository.uin-suska.ac.id/</t>
+  </si>
+  <si>
+    <t>http://repository.uinmataram.ac.id/</t>
+  </si>
+  <si>
+    <t>http://repository.unimal.ac.id/</t>
+  </si>
+  <si>
+    <t>http://digilib.unisayogya.ac.id/</t>
+  </si>
+  <si>
+    <t>http://repository.unisba.ac.id/</t>
+  </si>
+  <si>
+    <t>http://elibrary.almaata.ac.id/</t>
+  </si>
+  <si>
+    <t>http://repository.iainkediri.ac.id/</t>
+  </si>
+  <si>
+    <t>https://repo.ikippgribali.ac.id/</t>
+  </si>
+  <si>
+    <t>http://eprints.mercubuana-yogya.ac.id/</t>
+  </si>
+  <si>
+    <t>http://repository.metrouniv.ac.id/</t>
+  </si>
+  <si>
+    <t>http://repo.polinpdg.ac.id/</t>
+  </si>
+  <si>
+    <t>http://eprint.stieww.ac.id/</t>
+  </si>
+  <si>
+    <t>http://repository.umrah.ac.id/</t>
+  </si>
+  <si>
+    <t>http://repository.unpar.ac.id/</t>
+  </si>
+  <si>
+    <t>http://eprints.iain-surakarta.ac.id/</t>
+  </si>
+  <si>
+    <t>http://digilib.isi.ac.id/</t>
+  </si>
+  <si>
+    <t>http://repository.petra.ac.id/</t>
+  </si>
+  <si>
+    <t>http://repository.poltekeskupang.ac.id/</t>
+  </si>
+  <si>
+    <t>http://repository.stkippgri-sidoarjo.ac.id/</t>
+  </si>
+  <si>
+    <t>http://repository.ub.ac.id/</t>
+  </si>
+  <si>
+    <t>http://eprints.ukmc.ac.id/</t>
+  </si>
+  <si>
+    <t>http://eprints.unram.ac.id/</t>
+  </si>
+  <si>
+    <t>http://repository.upnyk.ac.id/</t>
+  </si>
+  <si>
+    <t>https://repository.warmadewa.ac.id/</t>
+  </si>
+  <si>
+    <t>https://repository.atmaluhur.ac.id/</t>
+  </si>
+  <si>
+    <t>http://repo.darmajaya.ac.id/</t>
+  </si>
+  <si>
+    <t>http://eprints.itenas.ac.id/</t>
+  </si>
+  <si>
+    <t>http://repository.ittelkom-pwt.ac.id/</t>
+  </si>
+  <si>
+    <t>http://repository.radenintan.ac.id/</t>
+  </si>
+  <si>
+    <t>http://repository.unars.ac.id/</t>
+  </si>
+  <si>
+    <t>https://repository.unhas.ac.id/</t>
+  </si>
+  <si>
+    <t>http://repository.uniska-bjm.ac.id/</t>
+  </si>
+  <si>
+    <t>http://eprints.unm.ac.id/</t>
+  </si>
+  <si>
+    <t>http://eprints.unmer.ac.id/</t>
+  </si>
+  <si>
+    <t>http://repo.pens.ac.id/</t>
+  </si>
+  <si>
+    <t>http://repository.poltekkes-smg.ac.id/</t>
+  </si>
+  <si>
+    <t>http://repository.stieykpn.ac.id/</t>
+  </si>
+  <si>
+    <t>http://repository.stik-sitikhadijah.ac.id/</t>
+  </si>
+  <si>
+    <t>http://repository.uin-malang.ac.id/</t>
+  </si>
+  <si>
+    <t>http://eprints.umg.ac.id/</t>
+  </si>
+  <si>
+    <t>http://eprints.umm.ac.id/</t>
+  </si>
+  <si>
+    <t>http://repository.umy.ac.id/</t>
+  </si>
+  <si>
+    <t>http://repository.unwira.ac.id/</t>
+  </si>
+  <si>
+    <t>http://repository.usu.ac.id/</t>
   </si>
 </sst>
 </file>
@@ -354,16 +693,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D121"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A95" workbookViewId="0">
+      <selection activeCell="C112" sqref="C112:C121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="19.5703125" customWidth="1"/>
-    <col min="3" max="3" width="20.28515625" customWidth="1"/>
+    <col min="3" max="3" width="59.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -385,8 +724,934 @@
       <c r="A2">
         <v>1</v>
       </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="C21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="C22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="C23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="C28" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="C29" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="C30" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="C31" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="C32" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="C33" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="C34" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="C35" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="C36" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="C37" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="C38" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="C39" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="C40" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="C41" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="C42" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="C43" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="C44" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="C45" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="C46" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="C47" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="C48" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="C49" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="C50" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="C51" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="C52" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="C53" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="C54" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="C55" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="C56" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="C57" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="C58" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="C59" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="C60" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="C61" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="C62" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="C63" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="C64" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="C65" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="C66" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="C67" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="C68" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="C69" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="C70" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="C71" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="C72" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="C73" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="C74" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="C75" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="C76" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="C77" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="C78" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="C79" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="C80" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="C81" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="C82" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="C83" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="C84" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="C85" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="C86" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="C87" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="C88" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="C89" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="C90" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="C91" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="C92" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="C93" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="C94" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="C95" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="C96" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="C97" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="C98" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="C99" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="C100" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="C101" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="C102" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="C103" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="C104" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="C105" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="C106" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="C107" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="C108" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="C109" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="C110" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="C111" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C112" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="113" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C113" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="114" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C114" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="115" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C115" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="116" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C116" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="117" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C117" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="118" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C118" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="119" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C119" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="120" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C120" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="121" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C121" t="s">
+        <v>116</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>